--- a/biology/Médecine/Leopold_Auenbrugger/Leopold_Auenbrugger.xlsx
+++ b/biology/Médecine/Leopold_Auenbrugger/Leopold_Auenbrugger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Leopold Auenbrugger ou Joseph Leopold von Auenbrugg, né le 19 novembre 1722 à Graz et mort le 18 mai 1809 à Vienne), est un médecin et librettiste autrichien. Il est considéré comme l'inventeur de la technique  de la percussion lors de l'examen médical.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était fils d'un restaurateur et dès son enfance aidait son père dans l'auberge « Zum Schwarzen Mohren » et c'est là qu'il apprit à estimer le remplissage des tonneaux de vin en frappant sur leur paroi.
 Son père mourut quand il était encore jeune, mais il laissait du bien et son fils put étudier la médecine à Graz, puis à Vienne, où il eut parmi ses enseignants Gerhard Swieten à qui, par la suite, il dédia un de ses livres. Après la fin de ses études en 1751, il exerça comme médecin-adjoint à l'Hôpital militaire espagnol. À cette époque, il remarqua des différences de son, si on frappait à des endroits différents à la surface de la paroi thoracique. Il étudia ce phénomène de façon approfondie et publia en 1761 un ouvrage en latin intitulé Inventum novum ex percussione thoracis humani ut signo abstrusos interni pectoris morbos detegendi (« Nouvelle invention pour détecter les signes des maladies cachées de la poitrine par la percussion du thorax chez l'homme »). C'est ainsi qu'il est considéré comme l'inventeur de la percussion thoracique.
@@ -547,9 +561,11 @@
           <t>Eponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Signe d'Auenbrugger[1]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Signe d'Auenbrugger</t>
         </is>
       </c>
     </row>
@@ -577,7 +593,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nouvelle méthode pour reconnaître les maladies internes de la poitrine par la percussion de cette cavité, [ouvrage édité, traduit du latin et commenté par Jean-Nicolas Corvisart, 1808, Texte intégral.</t>
         </is>
